--- a/xlsx/nfeature: 512, hamming_tolerance: 64, k_knn: 30.xlsx
+++ b/xlsx/nfeature: 512, hamming_tolerance: 64, k_knn: 30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,16 +428,16 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.859</v>
+        <v>0.542</v>
       </c>
       <c r="C1" t="n">
         <v>0.002</v>
       </c>
       <c r="D1" t="n">
-        <v>0.968</v>
+        <v>0.971</v>
       </c>
       <c r="E1" t="n">
-        <v>0.3</v>
+        <v>0.267</v>
       </c>
       <c r="F1" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.247</v>
+        <v>0.883</v>
       </c>
       <c r="C2" t="n">
         <v>0.003</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.217</v>
+        <v>0.862</v>
       </c>
       <c r="C3" t="n">
         <v>0.003</v>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.861</v>
+        <v>0.547</v>
       </c>
       <c r="C4" t="n">
         <v>0.002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.957</v>
+        <v>0.962</v>
       </c>
       <c r="E4" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.04</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>0.002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.978</v>
+        <v>0.984</v>
       </c>
       <c r="E5" t="n">
-        <v>0.333</v>
+        <v>0.267</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -573,25 +573,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.11</v>
+        <v>1.256</v>
       </c>
       <c r="C6" t="n">
         <v>0.004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.946</v>
+        <v>0.953</v>
       </c>
       <c r="E6" t="n">
-        <v>0.433</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -602,25 +602,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.71</v>
+        <v>1.105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D7" t="n">
         <v>0.964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.367</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.948</v>
+        <v>1.328</v>
       </c>
       <c r="C8" t="n">
         <v>0.004</v>
@@ -640,7 +640,7 @@
         <v>0.993</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9</v>
+        <v>0.967</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.718</v>
+        <v>1.112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.973</v>
+        <v>0.979</v>
       </c>
       <c r="E9" t="n">
-        <v>0.467</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -689,25 +689,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.09</v>
+        <v>1.278</v>
       </c>
       <c r="C10" t="n">
         <v>0.004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.968</v>
+        <v>0.973</v>
       </c>
       <c r="E10" t="n">
-        <v>0.467</v>
+        <v>0.633</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.145</v>
+        <v>0.852</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.968</v>
+        <v>0.97</v>
       </c>
       <c r="E11" t="n">
-        <v>0.467</v>
+        <v>0.433</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.518</v>
+        <v>1.141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
       <c r="E12" t="n">
         <v>0.7</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.215</v>
+        <v>0.851</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
@@ -805,16 +805,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.343</v>
+        <v>0.979</v>
       </c>
       <c r="C14" t="n">
         <v>0.003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.944</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.333</v>
+        <v>0.367</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.362</v>
+        <v>0.931</v>
       </c>
       <c r="C15" t="n">
         <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.977</v>
+        <v>0.985</v>
       </c>
       <c r="E15" t="n">
-        <v>0.233</v>
+        <v>0.267</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.156</v>
+        <v>0.751</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.921</v>
+        <v>0.985</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.141</v>
+        <v>0.74</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.962</v>
+        <v>0.958</v>
       </c>
       <c r="E17" t="n">
-        <v>0.433</v>
+        <v>0.467</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.525</v>
+        <v>1.023</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.979</v>
+        <v>0.983</v>
       </c>
       <c r="E18" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.045</v>
+        <v>0.68</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.967</v>
+        <v>0.97</v>
       </c>
       <c r="E19" t="n">
         <v>0.2</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.439</v>
+        <v>1.016</v>
       </c>
       <c r="C20" t="n">
         <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.965</v>
+        <v>0.961</v>
       </c>
       <c r="E20" t="n">
         <v>0.4</v>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.922</v>
+        <v>0.569</v>
       </c>
       <c r="C21" t="n">
         <v>0.002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.96</v>
+        <v>0.978</v>
       </c>
       <c r="E21" t="n">
-        <v>0.267</v>
+        <v>0.233</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.606</v>
+        <v>1.318</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.954</v>
+        <v>0.957</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3</v>
+        <v>0.233</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.52</v>
+        <v>1.097</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
       <c r="E23" t="n">
         <v>0.467</v>
@@ -1095,16 +1095,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.617</v>
+        <v>1.155</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4</v>
+        <v>0.367</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.607</v>
+        <v>1.204</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.986</v>
+        <v>0.985</v>
       </c>
       <c r="E25" t="n">
-        <v>0.367</v>
+        <v>0.4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.502</v>
+        <v>0.984</v>
       </c>
       <c r="C26" t="n">
         <v>0.003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.885</v>
+        <v>0.884</v>
       </c>
       <c r="E26" t="n">
         <v>0.333</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.906</v>
+        <v>1.185</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="E27" t="n">
         <v>0.467</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.714</v>
+        <v>1.209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D28" t="n">
         <v>0.985</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5</v>
+        <v>0.467</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rafiqo Rapitasari</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.178</v>
+        <v>0.887</v>
       </c>
       <c r="C29" t="n">
         <v>0.003</v>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.668</v>
+        <v>1.209</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.967</v>
+        <v>0.971</v>
       </c>
       <c r="E30" t="n">
-        <v>0.767</v>
+        <v>0.733</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.099</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.973</v>
+        <v>0.981</v>
       </c>
       <c r="E31" t="n">
-        <v>0.233</v>
+        <v>0.267</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.115</v>
+        <v>0.773</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D32" t="n">
-        <v>0.983</v>
+        <v>0.981</v>
       </c>
       <c r="E32" t="n">
         <v>0.3</v>
@@ -1356,13 +1356,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.317</v>
+        <v>1.042</v>
       </c>
       <c r="C33" t="n">
         <v>0.003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.915</v>
+        <v>0.97</v>
       </c>
       <c r="E33" t="n">
         <v>0.233</v>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.298</v>
+        <v>1.286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.954</v>
+        <v>0.951</v>
       </c>
       <c r="E34" t="n">
-        <v>0.267</v>
+        <v>0.233</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1414,45 +1414,45 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.746</v>
+        <v>1.246</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D35" t="n">
         <v>0.985</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0.233</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.482</v>
+        <v>1.183</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.98</v>
+        <v>0.977</v>
       </c>
       <c r="E36" t="n">
-        <v>0.467</v>
+        <v>0.2</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1468,49 +1468,49 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.487</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C37" t="n">
         <v>0.003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.983</v>
+        <v>0.962</v>
       </c>
       <c r="E37" t="n">
-        <v>0.533</v>
+        <v>0.333</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.393</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.986</v>
+        <v>0.982</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1526,20 +1526,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.254</v>
+        <v>0.838</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.961</v>
+        <v>0.977</v>
       </c>
       <c r="E39" t="n">
-        <v>0.267</v>
+        <v>0.4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1555,49 +1555,49 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.432</v>
+        <v>2.492</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="D40" t="n">
-        <v>0.974</v>
+        <v>0.783</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.028</v>
+        <v>2.151</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.821</v>
+        <v>0.761</v>
       </c>
       <c r="E41" t="n">
-        <v>0.333</v>
+        <v>0.467</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.452</v>
+        <v>1.527</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D42" t="n">
-        <v>0.758</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4</v>
+        <v>0.367</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1642,20 +1642,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.648</v>
+        <v>1.568</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267</v>
+        <v>0.4</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1671,17 +1671,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TD_4.png</t>
+          <t>TD_3.png</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="C44" t="n">
         <v>0.003</v>
       </c>
       <c r="D44" t="n">
-        <v>0.978</v>
+        <v>0.944</v>
       </c>
       <c r="E44" t="n">
         <v>0.2</v>
@@ -1692,6 +1692,35 @@
         </is>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TD_4.png</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Benar</t>
         </is>
